--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a2-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H2">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I2">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J2">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5027769999999999</v>
+        <v>0.5620333333333333</v>
       </c>
       <c r="N2">
-        <v>1.508331</v>
+        <v>1.6861</v>
       </c>
       <c r="O2">
-        <v>0.01505293423242436</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="P2">
-        <v>0.01505293423242436</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="Q2">
-        <v>32.881613788892</v>
+        <v>38.17328151866666</v>
       </c>
       <c r="R2">
-        <v>295.934524100028</v>
+        <v>343.559533668</v>
       </c>
       <c r="S2">
-        <v>0.0003531017857475649</v>
+        <v>0.0003972263822281708</v>
       </c>
       <c r="T2">
-        <v>0.000353101785747565</v>
+        <v>0.0003972263822281709</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H3">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I3">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J3">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>98.13091799999999</v>
       </c>
       <c r="O3">
-        <v>0.9793329546508215</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="P3">
-        <v>0.9793329546508215</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="Q3">
-        <v>2139.253881558776</v>
+        <v>2221.68267510776</v>
       </c>
       <c r="R3">
-        <v>19253.28493402898</v>
+        <v>19995.14407596984</v>
       </c>
       <c r="S3">
-        <v>0.02297254540472075</v>
+        <v>0.02311855141561549</v>
       </c>
       <c r="T3">
-        <v>0.02297254540472076</v>
+        <v>0.02311855141561549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H4">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I4">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J4">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1531426666666667</v>
+        <v>0.1711366666666666</v>
       </c>
       <c r="N4">
-        <v>0.459428</v>
+        <v>0.5134099999999999</v>
       </c>
       <c r="O4">
-        <v>0.004585027734982747</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="P4">
-        <v>0.004585027734982747</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="Q4">
-        <v>10.01552978742933</v>
+        <v>11.62359555453333</v>
       </c>
       <c r="R4">
-        <v>90.13976808686401</v>
+        <v>104.6123599908</v>
       </c>
       <c r="S4">
-        <v>0.0001075525512784874</v>
+        <v>0.0001209536782514472</v>
       </c>
       <c r="T4">
-        <v>0.0001075525512784875</v>
+        <v>0.0001209536782514472</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H5">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I5">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J5">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03437200000000001</v>
+        <v>0.133027</v>
       </c>
       <c r="N5">
-        <v>0.103116</v>
+        <v>0.399081</v>
       </c>
       <c r="O5">
-        <v>0.001029083381771422</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="P5">
-        <v>0.001029083381771422</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="Q5">
-        <v>2.247928662512</v>
+        <v>9.035188518919998</v>
       </c>
       <c r="R5">
-        <v>20.231357962608</v>
+        <v>81.31669667028</v>
       </c>
       <c r="S5">
-        <v>2.41395580539987E-05</v>
+        <v>9.401903911155958E-05</v>
       </c>
       <c r="T5">
-        <v>2.41395580539987E-05</v>
+        <v>9.401903911155959E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2623.51945</v>
+        <v>67.91996</v>
       </c>
       <c r="H6">
-        <v>7870.55835</v>
+        <v>203.75988</v>
       </c>
       <c r="I6">
-        <v>0.9409906676183405</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J6">
-        <v>0.9409906676183405</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.5027769999999999</v>
+        <v>0.03541066666666667</v>
       </c>
       <c r="N6">
-        <v>1.508331</v>
+        <v>0.106232</v>
       </c>
       <c r="O6">
-        <v>0.01505293423242436</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="P6">
-        <v>0.01505293423242436</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="Q6">
-        <v>1319.04523851265</v>
+        <v>2.405091063573333</v>
       </c>
       <c r="R6">
-        <v>11871.40714661385</v>
+        <v>21.64581957216</v>
       </c>
       <c r="S6">
-        <v>0.01416467063298397</v>
+        <v>2.502707611462134E-05</v>
       </c>
       <c r="T6">
-        <v>0.01416467063298397</v>
+        <v>2.502707611462134E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I7">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J7">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.710306</v>
+        <v>0.5620333333333333</v>
       </c>
       <c r="N7">
-        <v>98.13091799999999</v>
+        <v>1.6861</v>
       </c>
       <c r="O7">
-        <v>0.9793329546508215</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="P7">
-        <v>0.9793329546508215</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="Q7">
-        <v>85816.12400645169</v>
+        <v>1474.505381548333</v>
       </c>
       <c r="R7">
-        <v>772345.1160580653</v>
+        <v>13270.548433935</v>
       </c>
       <c r="S7">
-        <v>0.9215431708175185</v>
+        <v>0.01534351816209462</v>
       </c>
       <c r="T7">
-        <v>0.9215431708175185</v>
+        <v>0.01534351816209463</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I8">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J8">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1531426666666667</v>
+        <v>32.710306</v>
       </c>
       <c r="N8">
-        <v>0.459428</v>
+        <v>98.13091799999999</v>
       </c>
       <c r="O8">
-        <v>0.004585027734982747</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="P8">
-        <v>0.004585027734982747</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="Q8">
-        <v>401.7727646248667</v>
+        <v>85816.12400645169</v>
       </c>
       <c r="R8">
-        <v>3615.9548816238</v>
+        <v>772345.1160580653</v>
       </c>
       <c r="S8">
-        <v>0.004314468309390022</v>
+        <v>0.8929918288334133</v>
       </c>
       <c r="T8">
-        <v>0.004314468309390022</v>
+        <v>0.8929918288334134</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>7870.55835</v>
       </c>
       <c r="I9">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J9">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.03437200000000001</v>
+        <v>0.1711366666666666</v>
       </c>
       <c r="N9">
-        <v>0.103116</v>
+        <v>0.5134099999999999</v>
       </c>
       <c r="O9">
-        <v>0.001029083381771422</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="P9">
-        <v>0.001029083381771422</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="Q9">
-        <v>90.17561053540003</v>
+        <v>448.9803736081666</v>
       </c>
       <c r="R9">
-        <v>811.5804948186001</v>
+        <v>4040.823362473499</v>
       </c>
       <c r="S9">
-        <v>0.0009683578584480302</v>
+        <v>0.004672033485321749</v>
       </c>
       <c r="T9">
-        <v>0.0009683578584480302</v>
+        <v>0.004672033485321749</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.220081</v>
+        <v>2623.51945</v>
       </c>
       <c r="H10">
-        <v>0.6602429999999999</v>
+        <v>7870.55835</v>
       </c>
       <c r="I10">
-        <v>7.89375383209421E-05</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J10">
-        <v>7.893753832094211E-05</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5027769999999999</v>
+        <v>0.133027</v>
       </c>
       <c r="N10">
-        <v>1.508331</v>
+        <v>0.399081</v>
       </c>
       <c r="O10">
-        <v>0.01505293423242436</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="P10">
-        <v>0.01505293423242436</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="Q10">
-        <v>0.110651664937</v>
+        <v>348.99892187515</v>
       </c>
       <c r="R10">
-        <v>0.9958649844329998</v>
+        <v>3140.99029687635</v>
       </c>
       <c r="S10">
-        <v>1.188241572814619E-06</v>
+        <v>0.003631639031876451</v>
       </c>
       <c r="T10">
-        <v>1.188241572814619E-06</v>
+        <v>0.003631639031876452</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.220081</v>
+        <v>2623.51945</v>
       </c>
       <c r="H11">
-        <v>0.6602429999999999</v>
+        <v>7870.55835</v>
       </c>
       <c r="I11">
-        <v>7.89375383209421E-05</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J11">
-        <v>7.893753832094211E-05</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>32.710306</v>
+        <v>0.03541066666666667</v>
       </c>
       <c r="N11">
-        <v>98.13091799999999</v>
+        <v>0.106232</v>
       </c>
       <c r="O11">
-        <v>0.9793329546508215</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="P11">
-        <v>0.9793329546508215</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="Q11">
-        <v>7.198916854785998</v>
+        <v>92.90057273746667</v>
       </c>
       <c r="R11">
-        <v>64.79025169307398</v>
+        <v>836.1051546371999</v>
       </c>
       <c r="S11">
-        <v>7.730613263671066E-05</v>
+        <v>0.0009667117142492357</v>
       </c>
       <c r="T11">
-        <v>7.730613263671068E-05</v>
+        <v>0.0009667117142492357</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H12">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I12">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J12">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1531426666666667</v>
+        <v>0.5620333333333333</v>
       </c>
       <c r="N12">
-        <v>0.459428</v>
+        <v>1.6861</v>
       </c>
       <c r="O12">
-        <v>0.004585027734982747</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="P12">
-        <v>0.004585027734982747</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="Q12">
-        <v>0.03370379122266667</v>
+        <v>0.7737394872999999</v>
       </c>
       <c r="R12">
-        <v>0.303334121004</v>
+        <v>6.963655385699999</v>
       </c>
       <c r="S12">
-        <v>3.619308025327829E-07</v>
+        <v>8.051436111851301E-06</v>
       </c>
       <c r="T12">
-        <v>3.61930802532783E-07</v>
+        <v>8.051436111851303E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H13">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I13">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J13">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.03437200000000001</v>
+        <v>32.710306</v>
       </c>
       <c r="N13">
-        <v>0.103116</v>
+        <v>98.13091799999999</v>
       </c>
       <c r="O13">
-        <v>0.001029083381771422</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="P13">
-        <v>0.001029083381771422</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="Q13">
-        <v>0.007564624132</v>
+        <v>45.03159135377399</v>
       </c>
       <c r="R13">
-        <v>0.068081617188</v>
+        <v>405.284322183966</v>
       </c>
       <c r="S13">
-        <v>8.123330888402633E-08</v>
+        <v>0.0004685930946410763</v>
       </c>
       <c r="T13">
-        <v>8.123330888402635E-08</v>
+        <v>0.0004685930946410764</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>98.65010533333333</v>
+        <v>1.376679</v>
       </c>
       <c r="H14">
-        <v>295.950316</v>
+        <v>4.130037</v>
       </c>
       <c r="I14">
-        <v>0.03538332009630534</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J14">
-        <v>0.03538332009630534</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,43 +1302,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.5027769999999999</v>
+        <v>0.1711366666666666</v>
       </c>
       <c r="N14">
-        <v>1.508331</v>
+        <v>0.5134099999999999</v>
       </c>
       <c r="O14">
-        <v>0.01505293423242436</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="P14">
-        <v>0.01505293423242436</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="Q14">
-        <v>49.59900400917732</v>
+        <v>0.2356002551299999</v>
       </c>
       <c r="R14">
-        <v>446.3910360825959</v>
+        <v>2.12040229617</v>
       </c>
       <c r="S14">
-        <v>0.0005326227903345036</v>
+        <v>2.451626720945126E-06</v>
       </c>
       <c r="T14">
-        <v>0.0005326227903345036</v>
+        <v>2.451626720945126E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>98.65010533333333</v>
+        <v>1.376679</v>
       </c>
       <c r="H15">
-        <v>295.950316</v>
+        <v>4.130037</v>
       </c>
       <c r="I15">
-        <v>0.03538332009630534</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J15">
-        <v>0.03538332009630534</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>32.710306</v>
+        <v>0.133027</v>
       </c>
       <c r="N15">
-        <v>98.13091799999999</v>
+        <v>0.399081</v>
       </c>
       <c r="O15">
-        <v>0.9793329546508215</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="P15">
-        <v>0.9793329546508215</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="Q15">
-        <v>3226.875132385565</v>
+        <v>0.183135477333</v>
       </c>
       <c r="R15">
-        <v>29041.87619147008</v>
+        <v>1.648219295997</v>
       </c>
       <c r="S15">
-        <v>0.0346520514152705</v>
+        <v>1.905684819971371E-06</v>
       </c>
       <c r="T15">
-        <v>0.0346520514152705</v>
+        <v>1.905684819971371E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>98.65010533333333</v>
+        <v>1.376679</v>
       </c>
       <c r="H16">
-        <v>295.950316</v>
+        <v>4.130037</v>
       </c>
       <c r="I16">
-        <v>0.03538332009630534</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J16">
-        <v>0.03538332009630534</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1531426666666667</v>
+        <v>0.03541066666666667</v>
       </c>
       <c r="N16">
-        <v>0.459428</v>
+        <v>0.106232</v>
       </c>
       <c r="O16">
-        <v>0.004585027734982747</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="P16">
-        <v>0.004585027734982747</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="Q16">
-        <v>15.10754019769422</v>
+        <v>0.048749121176</v>
       </c>
       <c r="R16">
-        <v>135.967861779248</v>
+        <v>0.4387420905839999</v>
       </c>
       <c r="S16">
-        <v>0.0001622335039973324</v>
+        <v>5.072772439559858E-07</v>
       </c>
       <c r="T16">
-        <v>0.0001622335039973324</v>
+        <v>5.072772439559857E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H17">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I17">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J17">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.03437200000000001</v>
+        <v>0.5620333333333333</v>
       </c>
       <c r="N17">
-        <v>0.103116</v>
+        <v>1.6861</v>
       </c>
       <c r="O17">
-        <v>0.001029083381771422</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="P17">
-        <v>0.001029083381771422</v>
+        <v>0.01672125362771917</v>
       </c>
       <c r="Q17">
-        <v>3.390801420517334</v>
+        <v>92.64824975798886</v>
       </c>
       <c r="R17">
-        <v>30.517212784656</v>
+        <v>833.8342478218999</v>
       </c>
       <c r="S17">
-        <v>3.641238670300663E-05</v>
+        <v>0.0009640860729550235</v>
       </c>
       <c r="T17">
-        <v>3.641238670300663E-05</v>
+        <v>0.0009640860729550237</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.250186</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H18">
-        <v>0.7505580000000001</v>
+        <v>494.534279</v>
       </c>
       <c r="I18">
-        <v>8.973544723244271E-05</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J18">
-        <v>8.973544723244272E-05</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5027769999999999</v>
+        <v>32.710306</v>
       </c>
       <c r="N18">
-        <v>1.508331</v>
+        <v>98.13091799999999</v>
       </c>
       <c r="O18">
-        <v>0.01505293423242436</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="P18">
-        <v>0.01505293423242436</v>
+        <v>0.9731759495871608</v>
       </c>
       <c r="Q18">
-        <v>0.125787766522</v>
+        <v>5392.122531193123</v>
       </c>
       <c r="R18">
-        <v>1.132089898698</v>
+        <v>48529.10278073812</v>
       </c>
       <c r="S18">
-        <v>1.350781785507147E-06</v>
+        <v>0.0561097511239496</v>
       </c>
       <c r="T18">
-        <v>1.350781785507147E-06</v>
+        <v>0.05610975112394961</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>164.8447596666666</v>
+      </c>
+      <c r="H19">
+        <v>494.534279</v>
+      </c>
+      <c r="I19">
+        <v>0.05765632735555414</v>
+      </c>
+      <c r="J19">
+        <v>0.05765632735555416</v>
+      </c>
+      <c r="K19">
         <v>2</v>
       </c>
-      <c r="F19">
+      <c r="L19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G19">
-        <v>0.250186</v>
-      </c>
-      <c r="H19">
-        <v>0.7505580000000001</v>
-      </c>
-      <c r="I19">
-        <v>8.973544723244271E-05</v>
-      </c>
-      <c r="J19">
-        <v>8.973544723244272E-05</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
       <c r="M19">
-        <v>32.710306</v>
+        <v>0.1711366666666666</v>
       </c>
       <c r="N19">
-        <v>98.13091799999999</v>
+        <v>0.5134099999999999</v>
       </c>
       <c r="O19">
-        <v>0.9793329546508215</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="P19">
-        <v>0.9793329546508215</v>
+        <v>0.005091547847107109</v>
       </c>
       <c r="Q19">
-        <v>8.183660616915999</v>
+        <v>28.2109826868211</v>
       </c>
       <c r="R19">
-        <v>73.65294555224401</v>
+        <v>253.8988441813899</v>
       </c>
       <c r="S19">
-        <v>8.7880880675061E-05</v>
+        <v>0.0002935599494192744</v>
       </c>
       <c r="T19">
-        <v>8.788088067506101E-05</v>
+        <v>0.0002935599494192745</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,25 +1647,25 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.250186</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H20">
-        <v>0.7505580000000001</v>
+        <v>494.534279</v>
       </c>
       <c r="I20">
-        <v>8.973544723244271E-05</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J20">
-        <v>8.973544723244272E-05</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,60 +1674,60 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1531426666666667</v>
+        <v>0.133027</v>
       </c>
       <c r="N20">
-        <v>0.459428</v>
+        <v>0.399081</v>
       </c>
       <c r="O20">
-        <v>0.004585027734982747</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="P20">
-        <v>0.004585027734982747</v>
+        <v>0.003957733597653634</v>
       </c>
       <c r="Q20">
-        <v>0.03831415120266667</v>
+        <v>21.92880384417766</v>
       </c>
       <c r="R20">
-        <v>0.344827360824</v>
+        <v>197.359234597599</v>
       </c>
       <c r="S20">
-        <v>4.114395143718306E-07</v>
+        <v>0.0002281883838923929</v>
       </c>
       <c r="T20">
-        <v>4.114395143718306E-07</v>
+        <v>0.000228188383892393</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.250186</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H21">
-        <v>0.7505580000000001</v>
+        <v>494.534279</v>
       </c>
       <c r="I21">
-        <v>8.973544723244271E-05</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J21">
-        <v>8.973544723244272E-05</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1736,28 +1736,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.03437200000000001</v>
+        <v>0.03541066666666667</v>
       </c>
       <c r="N21">
-        <v>0.103116</v>
+        <v>0.106232</v>
       </c>
       <c r="O21">
-        <v>0.001029083381771422</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="P21">
-        <v>0.001029083381771422</v>
+        <v>0.001053515340359328</v>
       </c>
       <c r="Q21">
-        <v>0.008599393192000003</v>
+        <v>5.83726283630311</v>
       </c>
       <c r="R21">
-        <v>0.07739453872800002</v>
+        <v>52.53536552672799</v>
       </c>
       <c r="S21">
-        <v>9.234525750273316E-08</v>
+        <v>6.074182533785545E-05</v>
       </c>
       <c r="T21">
-        <v>9.234525750273317E-08</v>
+        <v>6.074182533785545E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.431418</v>
+      </c>
+      <c r="H22">
+        <v>4.294254</v>
+      </c>
+      <c r="I22">
+        <v>0.0005006547066313635</v>
+      </c>
+      <c r="J22">
+        <v>0.0005006547066313636</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.5620333333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.6861</v>
+      </c>
+      <c r="O22">
+        <v>0.01672125362771917</v>
+      </c>
+      <c r="P22">
+        <v>0.01672125362771917</v>
+      </c>
+      <c r="Q22">
+        <v>0.8045046299333333</v>
+      </c>
+      <c r="R22">
+        <v>7.240541669400001</v>
+      </c>
+      <c r="S22">
+        <v>8.371574329494361E-06</v>
+      </c>
+      <c r="T22">
+        <v>8.371574329494363E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.431418</v>
+      </c>
+      <c r="H23">
+        <v>4.294254</v>
+      </c>
+      <c r="I23">
+        <v>0.0005006547066313635</v>
+      </c>
+      <c r="J23">
+        <v>0.0005006547066313636</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>32.710306</v>
+      </c>
+      <c r="N23">
+        <v>98.13091799999999</v>
+      </c>
+      <c r="O23">
+        <v>0.9731759495871608</v>
+      </c>
+      <c r="P23">
+        <v>0.9731759495871608</v>
+      </c>
+      <c r="Q23">
+        <v>46.822120793908</v>
+      </c>
+      <c r="R23">
+        <v>421.399087145172</v>
+      </c>
+      <c r="S23">
+        <v>0.0004872251195412585</v>
+      </c>
+      <c r="T23">
+        <v>0.0004872251195412587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.431418</v>
+      </c>
+      <c r="H24">
+        <v>4.294254</v>
+      </c>
+      <c r="I24">
+        <v>0.0005006547066313635</v>
+      </c>
+      <c r="J24">
+        <v>0.0005006547066313636</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1711366666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.5134099999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.005091547847107109</v>
+      </c>
+      <c r="P24">
+        <v>0.005091547847107109</v>
+      </c>
+      <c r="Q24">
+        <v>0.2449681051266666</v>
+      </c>
+      <c r="R24">
+        <v>2.20471294614</v>
+      </c>
+      <c r="S24">
+        <v>2.54910739369296E-06</v>
+      </c>
+      <c r="T24">
+        <v>2.54910739369296E-06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.431418</v>
+      </c>
+      <c r="H25">
+        <v>4.294254</v>
+      </c>
+      <c r="I25">
+        <v>0.0005006547066313635</v>
+      </c>
+      <c r="J25">
+        <v>0.0005006547066313636</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.133027</v>
+      </c>
+      <c r="N25">
+        <v>0.399081</v>
+      </c>
+      <c r="O25">
+        <v>0.003957733597653634</v>
+      </c>
+      <c r="P25">
+        <v>0.003957733597653634</v>
+      </c>
+      <c r="Q25">
+        <v>0.190417242286</v>
+      </c>
+      <c r="R25">
+        <v>1.713755180574</v>
+      </c>
+      <c r="S25">
+        <v>1.981457953258371E-06</v>
+      </c>
+      <c r="T25">
+        <v>1.981457953258371E-06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.431418</v>
+      </c>
+      <c r="H26">
+        <v>4.294254</v>
+      </c>
+      <c r="I26">
+        <v>0.0005006547066313635</v>
+      </c>
+      <c r="J26">
+        <v>0.0005006547066313636</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.03541066666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.106232</v>
+      </c>
+      <c r="O26">
+        <v>0.001053515340359328</v>
+      </c>
+      <c r="P26">
+        <v>0.001053515340359328</v>
+      </c>
+      <c r="Q26">
+        <v>0.05068746565866667</v>
+      </c>
+      <c r="R26">
+        <v>0.456187190928</v>
+      </c>
+      <c r="S26">
+        <v>5.274474136592403E-07</v>
+      </c>
+      <c r="T26">
+        <v>5.274474136592403E-07</v>
       </c>
     </row>
   </sheetData>
